--- a/PythonScriptSummer16/analysis/analyzed.xlsx
+++ b/PythonScriptSummer16/analysis/analyzed.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="16740" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16720" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="38">
   <si>
     <t>Subject #</t>
   </si>
@@ -43,19 +44,135 @@
   </si>
   <si>
     <t>us</t>
+  </si>
+  <si>
+    <t>Averages</t>
+  </si>
+  <si>
+    <t>ID #</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>In what country did you spend the majority of your time before turning 18?</t>
+  </si>
+  <si>
+    <t>When did you start speaking English? If English is your first language write 0</t>
+  </si>
+  <si>
+    <t>When did you start speaking English in the United States?</t>
+  </si>
+  <si>
+    <t>Have you ever worked with speech recognition in an academic or work setting?</t>
+  </si>
+  <si>
+    <t>How often do you use speech recognition systems (e.x. Siri, OK Google, Cortana, automotive GPS systems)?</t>
+  </si>
+  <si>
+    <t>I found Nico easy to talk to</t>
+  </si>
+  <si>
+    <t>I felt that Nico understood me</t>
+  </si>
+  <si>
+    <t>I think that Nico would be a good tutor</t>
+  </si>
+  <si>
+    <t>I enjoyed talking to Nico</t>
+  </si>
+  <si>
+    <t>Any comments?</t>
+  </si>
+  <si>
+    <t>Avg rating</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>When Nico responded, I found the experience fun and engaging. I didn't enjoy interacting with Nico when I couldn't get him to respond to my voice.</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>18-24</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>I had a good time and I think after working out the issues with the last two dialogs would make a great deal of difference.</t>
+  </si>
+  <si>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>65-75</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>I expected Nico to have better sensory processing and worse specific responses.</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Maybe it would be good to have Nico introduce the process of how does it work at the beginning. And test more tutoring materials would be good.</t>
+  </si>
+  <si>
+    <t>Native</t>
+  </si>
+  <si>
+    <t>Non-Native</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="14.4"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -75,18 +192,475 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="13">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average WER among Native vs. Non-Native English Speakers</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$D$13:$D$14</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Native</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Non-Native</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$E$13:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.653525286333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.712085061333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2140600264"/>
+        <c:axId val="2144180376"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2140600264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>English</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2144180376"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2144180376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average WER</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2140600264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average User Rating of Nico vs. Frequency of ASR Usage </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$G$4:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$M$4:$M$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2139151112"/>
+        <c:axId val="-2147376696"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2139151112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frequency of ASR Usage</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2147376696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2147376696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average Rating</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2139151112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -411,15 +985,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -433,65 +1007,77 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:7">
       <c r="A2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>0.88888888888899997</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.68421052631599999</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.90909090909099999</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>0.35294117647099998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.75510204081599996</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>0.82258064516100005</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>0.289473684211</v>
+      </c>
+      <c r="F5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -500,12 +1086,15 @@
         <v>4</v>
       </c>
       <c r="D6">
-        <v>0.78378378378400004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.68421052631599999</v>
+      </c>
+      <c r="F6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -514,263 +1103,744 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <v>0.97777777777800001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.58823529411800002</v>
+      </c>
+      <c r="F7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>0.68421052631599999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.29885057471299997</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>0.24657534246599999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.64473684210500004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16">
       <c r="A10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10">
-        <v>0.95959595959599997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.66666666666700003</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.65946928999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16">
       <c r="A11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11">
-        <v>0.74509803921600004</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.625</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.5540083093</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16">
       <c r="A12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>0.402777777778</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.62500000030000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="16">
+      <c r="A13">
         <v>7</v>
       </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12">
-        <v>0.98666666666699998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
-        <v>8</v>
-      </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13">
-        <v>0.757142857143</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.805555555556</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.78156755</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16">
       <c r="A14">
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14">
-        <v>0.63736263736300003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.74509803921600004</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.74193321599999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="16">
       <c r="A15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15">
-        <v>0.66666666666700003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.98666666666699998</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.73485267750000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>0.757142857143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>0.63736263736300003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
         <v>7</v>
       </c>
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16">
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17">
-        <v>7</v>
-      </c>
-      <c r="B17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17">
-        <v>0.402777777778</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18">
-        <v>7</v>
-      </c>
-      <c r="B18" t="s">
-        <v>6</v>
-      </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18">
-        <v>0.805555555556</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.78378378378400004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19">
-        <v>0.68421052631599999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.97777777777800001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>0.24657534246599999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="16">
+      <c r="A21">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>0.95959595959599997</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.57515029819999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="16">
+      <c r="A22">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
         <v>7</v>
       </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20">
-        <v>0.58823529411800002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21">
-        <v>6</v>
-      </c>
-      <c r="B21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21">
-        <v>0.29885057471299997</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22">
-        <v>6</v>
-      </c>
-      <c r="B22" t="s">
-        <v>6</v>
-      </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22">
-        <v>0.64473684210500004</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.88888888888899997</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.39129356869999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="16">
       <c r="A23">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B23" t="s">
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23">
-        <v>0.90909090909099999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.875</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.75900702769999995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="16">
       <c r="A24">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>0.35294117647099998</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.79046004950000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="16">
+      <c r="A25">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>0.82258064516100005</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.77962313569999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="16">
+      <c r="G26" s="1">
+        <v>0.8012969633</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:D25">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:14" ht="16">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="16">
+      <c r="A2" s="1">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="1">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1">
+        <v>2</v>
+      </c>
+      <c r="J2" s="1">
+        <v>3</v>
+      </c>
+      <c r="K2" s="1">
+        <v>2</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="16">
+      <c r="A3" s="1">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="1">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1">
         <v>7</v>
       </c>
-      <c r="C24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24">
-        <v>0.75510204081599996</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25">
-        <v>5</v>
-      </c>
-      <c r="B25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25">
-        <v>0.289473684211</v>
+      <c r="F3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3</v>
+      </c>
+      <c r="I3" s="1">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1">
+        <v>4</v>
+      </c>
+      <c r="K3" s="1">
+        <v>5</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="1">
+        <v>3.75</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="18">
+      <c r="A4" s="1">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1">
+        <v>4</v>
+      </c>
+      <c r="I4" s="1">
+        <v>4</v>
+      </c>
+      <c r="J4" s="1">
+        <v>5</v>
+      </c>
+      <c r="K4" s="1">
+        <v>5</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0.65946928999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="18">
+      <c r="A5" s="1">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="1">
+        <v>4</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3</v>
+      </c>
+      <c r="I5" s="1">
+        <v>3</v>
+      </c>
+      <c r="J5" s="1">
+        <v>2</v>
+      </c>
+      <c r="K5" s="1">
+        <v>3</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1">
+        <v>2.75</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0.55400830899999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="18">
+      <c r="A6" s="1">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>5</v>
+      </c>
+      <c r="I6" s="1">
+        <v>4</v>
+      </c>
+      <c r="J6" s="1">
+        <v>4</v>
+      </c>
+      <c r="K6" s="1">
+        <v>5</v>
+      </c>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="18">
+      <c r="A7" s="1">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="1">
+        <v>5</v>
+      </c>
+      <c r="H7" s="1">
+        <v>3</v>
+      </c>
+      <c r="I7" s="1">
+        <v>3</v>
+      </c>
+      <c r="J7" s="1">
+        <v>3</v>
+      </c>
+      <c r="K7" s="1">
+        <v>4</v>
+      </c>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1">
+        <v>3.25</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0.78156755</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="18">
+      <c r="A8" s="1">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>6</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2</v>
+      </c>
+      <c r="H8" s="1">
+        <v>5</v>
+      </c>
+      <c r="I8" s="1">
+        <v>3</v>
+      </c>
+      <c r="J8" s="1">
+        <v>4</v>
+      </c>
+      <c r="K8" s="1">
+        <v>4</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" s="1">
+        <v>4</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0.74193321599999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="18">
+      <c r="A9" s="1">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="1">
+        <v>22</v>
+      </c>
+      <c r="E9" s="1">
+        <v>24</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3</v>
+      </c>
+      <c r="H9" s="1">
+        <v>3</v>
+      </c>
+      <c r="I9" s="1">
+        <v>4</v>
+      </c>
+      <c r="J9" s="1">
+        <v>3</v>
+      </c>
+      <c r="K9" s="1">
+        <v>5</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M9" s="1">
+        <v>3.75</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0.73485267799999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="N11">
+        <f>AVERAGE(N4:N9)</f>
+        <v>0.68280517383333328</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13">
+        <f>AVERAGE(N5:N7)</f>
+        <v>0.65352528633333329</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14">
+        <f>AVERAGE(N4,N8:N9)</f>
+        <v>0.71208506133333327</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
